--- a/biology/Zoologie/Gorilla_gorilla_gorilla/Gorilla_gorilla_gorilla.xlsx
+++ b/biology/Zoologie/Gorilla_gorilla_gorilla/Gorilla_gorilla_gorilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gorille des plaines de l'Ouest, Gorille des plaines occidentales
-Le Gorille des plaines de l’Ouest[1] ou Gorille des plaines occidentales[1] (Gorilla gorilla gorilla), est, avec le Gorille de la rivière Cross (Gorilla gorilla diehli), une sous-espèce du Gorille de l'Ouest (Gorilla gorilla).
+Le Gorille des plaines de l’Ouest ou Gorille des plaines occidentales (Gorilla gorilla gorilla), est, avec le Gorille de la rivière Cross (Gorilla gorilla diehli), une sous-espèce du Gorille de l'Ouest (Gorilla gorilla).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut être trouvé en Angola, Cameroun, République centrafricaine, République du Congo, Gabon et Guinée équatoriale.
 Il vit en forêt tropicale humide de montagne et de plaine et en forêt tropicale marécageuse.
@@ -544,10 +558,12 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De tous les gorilles, c'est le moins menacé, et le plus fréquemment rencontré dans les zoos[2]. Il reste cependant classé comme en danger critique d'extinction par l'UICN[3]. La population totale de cette sous-espèce est estimée à 225 000 en 2008, alors qu’elle était estimée à moins de 100 000 dans les années 1980[4].
-Les populations de gorilles des plaines ont diminué de 80 % entre 1970 et 2020[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De tous les gorilles, c'est le moins menacé, et le plus fréquemment rencontré dans les zoos. Il reste cependant classé comme en danger critique d'extinction par l'UICN. La population totale de cette sous-espèce est estimée à 225 000 en 2008, alors qu’elle était estimée à moins de 100 000 dans les années 1980.
+Les populations de gorilles des plaines ont diminué de 80 % entre 1970 et 2020.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mange des plantes et occasionnellement des insectes. Il vit en groupes familiaux constitués d'un mâle dominant, de 5 à 7 femelles adultes, d'enfants et d'adolescents, et parfois de quelques autres mâles adultes non dominants.
 </t>
@@ -607,9 +625,11 @@
           <t>Fait divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, au zoo de Cincinnati, un Gorille des plaines de l'Ouest mâle de 17 ans est abattu après qu'un enfant de 4 ans soit tombé dans son enclos. Il s'ensuivit une controverse sur le bien-fondé de la décision du zoo d'abattre l'animal pour sauver la vie de l'enfant, alors que le gorille ne montrait aucun signe d'agressivité[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, au zoo de Cincinnati, un Gorille des plaines de l'Ouest mâle de 17 ans est abattu après qu'un enfant de 4 ans soit tombé dans son enclos. Il s'ensuivit une controverse sur le bien-fondé de la décision du zoo d'abattre l'animal pour sauver la vie de l'enfant, alors que le gorille ne montrait aucun signe d'agressivité.
 </t>
         </is>
       </c>
